--- a/biology/Botanique/Minuartia/Minuartia.xlsx
+++ b/biology/Botanique/Minuartia/Minuartia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Minuartia est un genre végétal qui regroupe des plantes herbacées de la famille des Caryophyllaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (23 janvier 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (23 janvier 2017) :
 Minuartia arctica (Steven ex Ser.) Asch. &amp; Graebn.
 Minuartia biflora (L.) Schinz &amp; Thell.
 Minuartia caroliniana (Walter) Mattf.
@@ -526,7 +540,7 @@
 Minuartia laricifolia (L.) Schinz &amp; Thell.
 Minuartia obtusiloba (Rydb.) House
 Minuartia tenella (J. Gay) Mattf.
-Selon The Plant List            (23 janvier 2017)[3] :
+Selon The Plant List            (23 janvier 2017) :
 Minuartia acutiflora (Fenzl) Mattf.
 Minuartia adenotricha Schischk.
 Minuartia akinfievii (Schmalh.) Woronow
@@ -636,7 +650,7 @@
 Minuartia yukonensis Hultén
 Minuartia zarecznyi Klokov
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (23 janvier 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 Minuartia abchasica Schischk.
 Minuartia acuminata Turrill
 Minuartia acutiflora (Fenzl ex Endl.) Mattf.
